--- a/ironhack/data_analysis/scores/phase1-final-score.xlsx
+++ b/ironhack/data_analysis/scores/phase1-final-score.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Dropbox/20 NSF open data/02 Experiments 2015/05 Blue IronHack/04 judging/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Programming/Workspace/Workspace/PythonPractice/ironhack/data_analysis/scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162912" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>Percentile</t>
   </si>
@@ -107,18 +107,12 @@
     <t>sent</t>
   </si>
   <si>
-    <t> Jiexin Duan</t>
-  </si>
-  <si>
     <t>duan32</t>
   </si>
   <si>
     <t>duan32@purdue.edu</t>
   </si>
   <si>
-    <t> Siyuan Sheng</t>
-  </si>
-  <si>
     <t>ssheng2013</t>
   </si>
   <si>
@@ -297,13 +291,25 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>opendigital</t>
+  </si>
+  <si>
+    <t>opendigital@purdue.edu</t>
+  </si>
+  <si>
+    <t>Jiexin Duan</t>
+  </si>
+  <si>
+    <t>Siyuan Sheng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,14 +402,14 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,79 +693,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="X3" sqref="X3:X24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" customWidth="1"/>
-    <col min="11" max="12" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.5" customWidth="1"/>
+    <col min="11" max="12" width="24.33203125" customWidth="1"/>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="29.42578125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="24.28515625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="21.42578125" customWidth="1"/>
-    <col min="23" max="23" width="22.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="29.5" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="24.33203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="20.1640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5" style="6" customWidth="1"/>
+    <col min="22" max="22" width="21.5" customWidth="1"/>
+    <col min="23" max="23" width="22.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:24" outlineLevel="0" r="1">
-      <c r="I1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="Q1" s="14" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="I1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="Q1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row spans="1:24" ht="51.75" customHeight="1" outlineLevel="0" r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GitHub Name</t>
-        </is>
+    <row r="2" spans="1:24" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -807,10 +807,10 @@
       <c r="V2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-    </row>
-    <row spans="1:24" outlineLevel="0" r="3">
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -891,25 +891,25 @@
         <f>_xlfn.PERCENTRANK.INC(U$3:U$24,U3)</f>
         <v>0.80900000000000005</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -979,25 +979,25 @@
         <f t="shared" ref="V4:V24" si="13">_xlfn.PERCENTRANK.INC(U$3:U$24,U4)</f>
         <v>0.80900000000000005</v>
       </c>
-      <c r="W4" s="16" t="s">
+      <c r="W4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="X4" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>12.5</v>
@@ -1067,25 +1067,25 @@
         <f t="shared" si="13"/>
         <v>0.42799999999999999</v>
       </c>
-      <c r="W5" s="16" t="s">
+      <c r="W5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="16" t="s">
+      <c r="X5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="6">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>54.5</v>
@@ -1155,25 +1155,25 @@
         <f t="shared" si="13"/>
         <v>0.76100000000000001</v>
       </c>
-      <c r="W6" s="16" t="s">
+      <c r="W6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X6" s="16" t="s">
+      <c r="X6" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="7">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -1243,25 +1243,25 @@
         <f t="shared" si="13"/>
         <v>0.80900000000000005</v>
       </c>
-      <c r="W7" s="16" t="s">
+      <c r="W7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X7" s="16" t="s">
+      <c r="X7" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="8">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>62.5</v>
@@ -1331,25 +1331,25 @@
         <f t="shared" si="13"/>
         <v>0.71399999999999997</v>
       </c>
-      <c r="W8" s="16" t="s">
+      <c r="W8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X8" s="16" t="s">
+      <c r="X8" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="9">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>12.5</v>
@@ -1419,25 +1419,25 @@
         <f t="shared" si="13"/>
         <v>0.38</v>
       </c>
-      <c r="W9" s="16" t="s">
+      <c r="W9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X9" s="16" t="s">
+      <c r="X9" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="10">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -1507,25 +1507,25 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X10" s="16" t="s">
+      <c r="X10" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="11">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>37.5</v>
@@ -1595,25 +1595,25 @@
         <f t="shared" si="13"/>
         <v>0.61899999999999999</v>
       </c>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X11" s="16" t="s">
+      <c r="X11" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="12">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>37.5</v>
@@ -1683,25 +1683,25 @@
         <f t="shared" si="13"/>
         <v>0.66600000000000004</v>
       </c>
-      <c r="W12" s="16" t="s">
+      <c r="W12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X12" s="16" t="s">
+      <c r="X12" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="13">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>25</v>
@@ -1771,25 +1771,25 @@
         <f t="shared" si="13"/>
         <v>0.47599999999999998</v>
       </c>
-      <c r="W13" s="16" t="s">
+      <c r="W13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X13" s="16" t="s">
+      <c r="X13" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="14">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>12.5</v>
@@ -1859,25 +1859,25 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W14" s="16" t="s">
+      <c r="W14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X14" s="16" t="s">
+      <c r="X14" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>12.5</v>
@@ -1947,25 +1947,25 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W15" s="16" t="s">
+      <c r="W15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X15" s="16" t="s">
+      <c r="X15" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="16">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16">
         <v>12.5</v>
@@ -2035,16 +2035,16 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W16" s="16" t="s">
+      <c r="W16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X16" s="16" t="s">
+      <c r="X16" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="17">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="8">
         <v>29835738829</v>
@@ -2053,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <v>12.5</v>
@@ -2123,25 +2123,25 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W17" s="16" t="s">
+      <c r="W17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X17" s="16" t="s">
+      <c r="X17" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="18">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18">
         <v>12.5</v>
@@ -2211,25 +2211,25 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W18" s="16" t="s">
+      <c r="W18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X18" s="16" t="s">
+      <c r="X18" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="19">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -2299,25 +2299,25 @@
         <f t="shared" si="13"/>
         <v>0.47599999999999998</v>
       </c>
-      <c r="W19" s="16" t="s">
+      <c r="W19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X19" s="16" t="s">
+      <c r="X19" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="20">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -2387,25 +2387,25 @@
         <f t="shared" si="13"/>
         <v>0.47599999999999998</v>
       </c>
-      <c r="W20" s="16" t="s">
+      <c r="W20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X20" s="16" t="s">
+      <c r="X20" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="21">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21">
         <v>62.5</v>
@@ -2475,25 +2475,25 @@
         <f t="shared" si="13"/>
         <v>0.95199999999999996</v>
       </c>
-      <c r="W21" s="16" t="s">
+      <c r="W21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X21" s="16" t="s">
+      <c r="X21" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="22">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E22">
         <v>12.5</v>
@@ -2563,25 +2563,25 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W22" s="16" t="s">
+      <c r="W22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X22" s="16" t="s">
+      <c r="X22" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="23">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E23">
         <v>12.5</v>
@@ -2651,22 +2651,22 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W23" s="16" t="s">
+      <c r="W23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X23" s="16" t="s">
+      <c r="X23" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
         <v>85</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" t="s">
-        <v>87</v>
       </c>
       <c r="E24">
         <v>12.5</v>
@@ -2736,16 +2736,16 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W24" s="16" t="s">
+      <c r="W24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X24" s="16" t="s">
+      <c r="X24" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2789,9 +2789,9 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row spans="1:24" outlineLevel="0" r="26">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2835,7 +2835,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row spans="1:24" outlineLevel="0" r="28">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E28">
         <f>_xlfn.QUARTILE.INC(E3:E24,1)</f>
         <v>12.5</v>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="29">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E29">
         <f>_xlfn.QUARTILE.INC(E3:E24,2)</f>
         <v>31.25</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="30">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E30">
         <f>_xlfn.QUARTILE.INC(E3:E24,3)</f>
         <v>50</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row spans="1:24" outlineLevel="0" r="31">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E31">
         <f>_xlfn.QUARTILE.INC(E3:E24,4)</f>
         <v>62.5</v>
@@ -2907,19 +2907,15 @@
         <v>3</v>
       </c>
     </row>
-    <row outlineLevel="0" r="32">
-      <c r="A32" s="16" t="inlineStr">
-        <is>
-          <t>opendigital</t>
-        </is>
-      </c>
-      <c r="C32" s="16">
-        <v>0</v>
-      </c>
-      <c r="D32" s="16" t="inlineStr">
-        <is>
-          <t>opendigital@purdue.edu</t>
-        </is>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
